--- a/KHOZEMA_NULLWALA_DAY_01_27-02-2017.xlsx
+++ b/KHOZEMA_NULLWALA_DAY_01_27-02-2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTProject\JavaDevops\womenshopping-master\womenshopping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTProject\JavaDevops\womenshopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>S.No</t>
   </si>
@@ -61,18 +61,12 @@
     <t xml:space="preserve">Link </t>
   </si>
   <si>
-    <t>Errors Encountered Y/N</t>
-  </si>
-  <si>
     <t>Time Taken</t>
   </si>
   <si>
     <t>Link to useful material</t>
   </si>
   <si>
-    <t>If Yes, share the Error &amp; Solution in error report</t>
-  </si>
-  <si>
     <t>27th Feb, 2017</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>30 Minutes</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Installation_Error</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>Create a GitHub Profile &amp; Exploring various options in GitHub</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Create a Maven Project</t>
   </si>
   <si>
@@ -173,6 +161,99 @@
   </si>
   <si>
     <t xml:space="preserve">Solutions-apply the targeted runtime and ok or add the javaee dependency. </t>
+  </si>
+  <si>
+    <t>Create Login Page and Register page using bootstrap form components class.</t>
+  </si>
+  <si>
+    <t>Create Product Details Page.</t>
+  </si>
+  <si>
+    <t>Creating links between the three pages</t>
+  </si>
+  <si>
+    <t>Clicking on informational area image and link based on categories or products as per your project move to the details page </t>
+  </si>
+  <si>
+    <t>Implement Navigation between LandingPage, Login Page and Register Page using Spring.</t>
+  </si>
+  <si>
+    <t>Fix the "image not coming after implementing Spring Controller" Issue (Loading Static Resources)</t>
+  </si>
+  <si>
+    <t>Create a common directory for all the images, js, css and font file. Update it in your project.</t>
+  </si>
+  <si>
+    <t> https://www.youtube.com/watch?v=pU-4NybcjnE&amp;list=PLBgMUB7xGcO1YY1J9NoXssmaB0FjLSbQ5 </t>
+  </si>
+  <si>
+    <t> https://www.youtube.com/watch?v=iCQspqBpOB0&amp;list=PLBgMUB7xGcO31B2gBmy1igpZn6LK78-CJ (1 to 9)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OuSElmnstN8&amp;index=6&amp;list=PLAXbOMavY3k1VJGqqhfqAn0tUSC14Qsvq</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wx1UU7hhvbA</t>
+  </si>
+  <si>
+    <t>Understanding the DAO pattern.</t>
+  </si>
+  <si>
+    <t>. Create model class Product with the following parameters(ID, Brand, Name, Description, Price, Quantity, Category, Supplier). Similarly create for Category and User</t>
+  </si>
+  <si>
+    <t> Implement DAO Pattern to get the data as a list from the model into controller and use the list as a datasource for the data table in Products Page using DataTable.</t>
+  </si>
+  <si>
+    <t>Route to a ProductDetails Page from the product page on clicking on a button which will show the details of the product for which more info is required.</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/spring/spring-core/how-to-use-spring-component-repository-service-and-controller-annotations/</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/spring/spring-core/spring-beans-autowiring-concepts/</t>
+  </si>
+  <si>
+    <t>Adding Dependencies for implementing Spring Hibernate ORM with H2 Database</t>
+  </si>
+  <si>
+    <t>1st Mar,2017</t>
+  </si>
+  <si>
+    <t>2nd Mar,2017</t>
+  </si>
+  <si>
+    <t>adding applicationContext.xml and connect it using web.xml</t>
+  </si>
+  <si>
+    <t>Create Beans for DataSource, SessionFactory, TransactionManager in applicationContext.xml file. After successful configuration, a table Product should get created in H2 database.</t>
+  </si>
+  <si>
+    <t>Put some sample data in the table and it should be retrieved in the Products Page in the datatable.</t>
+  </si>
+  <si>
+    <t> Write the Junit test cases for checking the DAO classes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rdYQOqxq9F0 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HcjHJLEbtRs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ptajUIqk_Ao</t>
+  </si>
+  <si>
+    <t>http://www.journaldev.com/3524/spring-hibernate-integration-example-tutorial</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>3rd Mar,2017</t>
+  </si>
+  <si>
+    <t>To create a project by using frontend and backend</t>
   </si>
 </sst>
 </file>
@@ -294,7 +375,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,30 +384,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +433,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -651,184 +731,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C22" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C23" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -836,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,94 +1021,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>29</v>
+      <c r="B4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>26</v>
+      <c r="B5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>47</v>
+      <c r="B9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="25"/>
+      <c r="D12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,10 +1133,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -976,20 +1147,20 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
